--- a/URS/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/URS/DbLayouts/XX-系統/TxRecord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -790,10 +790,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy = ,AND BrNo = ,AND TxResult = ,AND ActionFg = ,AND TlrNo % ,AND TranNo %</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateDate asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -810,10 +806,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy = ,AND BrNo = ,AND TxResult = ,AND Hcode = ,AND TlrNo % ,AND TranNo %</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>0.</t>
     </r>
@@ -930,73 +922,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已訂正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已修正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已沖正</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByLC011All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">MrKey % ,AND TranNo ^i ,AND Entdy &gt;= ,AND Entdy &lt;= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已訂正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已修正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已沖正</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByLC011All</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionFg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND BrNo = ,AND TxResult = ,AND TlrNo % ,AND TranNo %</t>
+    <t>Entdy &gt;= ,AND Entdy &lt;= ,AND BrNo = ,AND TxResult = ,AND ActionFg = ,AND TlrNo % ,AND TranNo %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy &gt;= ,AND Entdy &lt;= ,AND BrNo = ,AND TxResult = ,AND TlrNo % ,AND TranNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy &gt;= ,AND Entdy &lt;= ,AND BrNo = ,AND TxResult = ,AND Hcode = ,AND TlrNo % ,AND TranNo %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1879,7 +1880,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>73</v>
@@ -2300,7 +2301,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2323,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2331,7 +2332,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>116</v>
@@ -2344,7 +2345,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -2499,7 +2500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2529,7 +2530,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2537,10 +2538,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2548,10 +2549,10 @@
         <v>122</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2559,43 +2560,43 @@
         <v>123</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
